--- a/Code/Results/Cases/Case_6_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022373807942051</v>
+        <v>1.04571345696573</v>
       </c>
       <c r="D2">
-        <v>1.042113057762978</v>
+        <v>1.062514824412384</v>
       </c>
       <c r="E2">
-        <v>1.023317514182806</v>
+        <v>1.043491947131174</v>
       </c>
       <c r="F2">
-        <v>1.04646340789225</v>
+        <v>1.067213760931284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059447104902855</v>
+        <v>1.073129100678315</v>
       </c>
       <c r="J2">
-        <v>1.04390531228546</v>
+        <v>1.066607855430857</v>
       </c>
       <c r="K2">
-        <v>1.053015286053073</v>
+        <v>1.073166876431736</v>
       </c>
       <c r="L2">
-        <v>1.034461282679368</v>
+        <v>1.05437688261603</v>
       </c>
       <c r="M2">
-        <v>1.057311270952234</v>
+        <v>1.077809871837403</v>
       </c>
       <c r="N2">
-        <v>1.045387777566518</v>
+        <v>1.0681225609272</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030808102865364</v>
+        <v>1.052805184800464</v>
       </c>
       <c r="D3">
-        <v>1.048905441576766</v>
+        <v>1.068367105260409</v>
       </c>
       <c r="E3">
-        <v>1.030651855978034</v>
+        <v>1.049676911370751</v>
       </c>
       <c r="F3">
-        <v>1.053811803894408</v>
+        <v>1.073591864218882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062834972263533</v>
+        <v>1.07642306686368</v>
       </c>
       <c r="J3">
-        <v>1.050492743440925</v>
+        <v>1.071952984833818</v>
       </c>
       <c r="K3">
-        <v>1.058948591273565</v>
+        <v>1.078194022316551</v>
       </c>
       <c r="L3">
-        <v>1.040907005216051</v>
+        <v>1.059711301384144</v>
       </c>
       <c r="M3">
-        <v>1.063799513346452</v>
+        <v>1.083362366798338</v>
       </c>
       <c r="N3">
-        <v>1.051984563629813</v>
+        <v>1.073475281027008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036081858747022</v>
+        <v>1.057259613227122</v>
       </c>
       <c r="D4">
-        <v>1.053155464590393</v>
+        <v>1.072045616266125</v>
       </c>
       <c r="E4">
-        <v>1.035237664587856</v>
+        <v>1.053560784869231</v>
       </c>
       <c r="F4">
-        <v>1.058413166418077</v>
+        <v>1.077603927488015</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064939371620805</v>
+        <v>1.078480452945428</v>
       </c>
       <c r="J4">
-        <v>1.054605549689309</v>
+        <v>1.075303959487929</v>
       </c>
       <c r="K4">
-        <v>1.06265203926425</v>
+        <v>1.081345839408954</v>
       </c>
       <c r="L4">
-        <v>1.04492861952028</v>
+        <v>1.063053056056596</v>
       </c>
       <c r="M4">
-        <v>1.067854230306899</v>
+        <v>1.086847970468171</v>
       </c>
       <c r="N4">
-        <v>1.056103210534815</v>
+        <v>1.076831014449489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038257704846224</v>
+        <v>1.059101790717826</v>
       </c>
       <c r="D5">
-        <v>1.054909522396805</v>
+        <v>1.073567457559142</v>
       </c>
       <c r="E5">
-        <v>1.037129558258174</v>
+        <v>1.055166709979899</v>
       </c>
       <c r="F5">
-        <v>1.060313057697671</v>
+        <v>1.079264498890144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065804194510372</v>
+        <v>1.079328481469354</v>
       </c>
       <c r="J5">
-        <v>1.056300873144435</v>
+        <v>1.076688217447696</v>
       </c>
       <c r="K5">
-        <v>1.064178366702008</v>
+        <v>1.082647862021088</v>
       </c>
       <c r="L5">
-        <v>1.046585700613442</v>
+        <v>1.064432901524294</v>
       </c>
       <c r="M5">
-        <v>1.069526496853879</v>
+        <v>1.088288939943008</v>
       </c>
       <c r="N5">
-        <v>1.057800941543704</v>
+        <v>1.078217238214337</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038620695942698</v>
+        <v>1.059409361181608</v>
       </c>
       <c r="D6">
-        <v>1.055202178704639</v>
+        <v>1.073821575148579</v>
       </c>
       <c r="E6">
-        <v>1.037445169127189</v>
+        <v>1.055434816972384</v>
       </c>
       <c r="F6">
-        <v>1.06063009456012</v>
+        <v>1.079541825131706</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065948268435393</v>
+        <v>1.079469901184901</v>
       </c>
       <c r="J6">
-        <v>1.056583607622993</v>
+        <v>1.076919239788156</v>
       </c>
       <c r="K6">
-        <v>1.064432901393859</v>
+        <v>1.082865161624964</v>
       </c>
       <c r="L6">
-        <v>1.046862018893141</v>
+        <v>1.064663151859791</v>
       </c>
       <c r="M6">
-        <v>1.069805437382251</v>
+        <v>1.088529491220802</v>
       </c>
       <c r="N6">
-        <v>1.058084077537651</v>
+        <v>1.078448588633018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03611109110535</v>
+        <v>1.057284346036113</v>
       </c>
       <c r="D7">
-        <v>1.053179028084329</v>
+        <v>1.072066046189427</v>
       </c>
       <c r="E7">
-        <v>1.035263082632318</v>
+        <v>1.053582347015212</v>
       </c>
       <c r="F7">
-        <v>1.058438685704258</v>
+        <v>1.07762621687071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064951004052334</v>
+        <v>1.07849184969122</v>
       </c>
       <c r="J7">
-        <v>1.054628332427007</v>
+        <v>1.075322550619043</v>
       </c>
       <c r="K7">
-        <v>1.062672551983305</v>
+        <v>1.08136332596344</v>
       </c>
       <c r="L7">
-        <v>1.044950890921218</v>
+        <v>1.063071590320514</v>
       </c>
       <c r="M7">
-        <v>1.067876699715897</v>
+        <v>1.086867318927688</v>
       </c>
       <c r="N7">
-        <v>1.056126025626614</v>
+        <v>1.076849631982142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025264023288373</v>
+        <v>1.048139040702826</v>
       </c>
       <c r="D8">
-        <v>1.044439941341867</v>
+        <v>1.064515886612982</v>
       </c>
       <c r="E8">
-        <v>1.025830790619598</v>
+        <v>1.045607568319916</v>
       </c>
       <c r="F8">
-        <v>1.048980040572635</v>
+        <v>1.069393979220076</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060610952217104</v>
+        <v>1.074258159337519</v>
       </c>
       <c r="J8">
-        <v>1.046163917103689</v>
+        <v>1.068437371422425</v>
       </c>
       <c r="K8">
-        <v>1.055049800539301</v>
+        <v>1.074887505873667</v>
       </c>
       <c r="L8">
-        <v>1.036671875823263</v>
+        <v>1.056203260213471</v>
       </c>
       <c r="M8">
-        <v>1.059535032653467</v>
+        <v>1.079709378394692</v>
       </c>
       <c r="N8">
-        <v>1.047649589862655</v>
+        <v>1.069954675041325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004602235309707</v>
+        <v>1.03090975643729</v>
       </c>
       <c r="D9">
-        <v>1.027823520554422</v>
+        <v>1.0503165114023</v>
       </c>
       <c r="E9">
-        <v>1.007866640884804</v>
+        <v>1.030578088152892</v>
       </c>
       <c r="F9">
-        <v>1.0310234370788</v>
+        <v>1.053936198181838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052232777167493</v>
+        <v>1.066189932023008</v>
       </c>
       <c r="J9">
-        <v>1.029993516999994</v>
+        <v>1.055416318101953</v>
       </c>
       <c r="K9">
-        <v>1.040480751982597</v>
+        <v>1.062642775643869</v>
       </c>
       <c r="L9">
-        <v>1.020833363771591</v>
+        <v>1.043193800200798</v>
       </c>
       <c r="M9">
-        <v>1.043632462934205</v>
+        <v>1.066210870672054</v>
       </c>
       <c r="N9">
-        <v>1.031456225936042</v>
+        <v>1.056915130331602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9895603510271689</v>
+        <v>1.018541607914695</v>
       </c>
       <c r="D10">
-        <v>1.015757227400322</v>
+        <v>1.040145998712189</v>
       </c>
       <c r="E10">
-        <v>0.9947973697114794</v>
+        <v>1.019789702437025</v>
       </c>
       <c r="F10">
-        <v>1.018002875652335</v>
+        <v>1.042880540504694</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046062382831394</v>
+        <v>1.060338300521873</v>
       </c>
       <c r="J10">
-        <v>1.018194378646854</v>
+        <v>1.046038411617334</v>
       </c>
       <c r="K10">
-        <v>1.029847691442829</v>
+        <v>1.053826359460408</v>
       </c>
       <c r="L10">
-        <v>1.009261198938068</v>
+        <v>1.033810610017128</v>
       </c>
       <c r="M10">
-        <v>1.03205451641759</v>
+        <v>1.056516454896352</v>
       </c>
       <c r="N10">
-        <v>1.01964033145306</v>
+        <v>1.047523906144113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9826846622950501</v>
+        <v>1.01294222201973</v>
       </c>
       <c r="D11">
-        <v>1.010251614329424</v>
+        <v>1.035548371698207</v>
       </c>
       <c r="E11">
-        <v>0.9888273031646821</v>
+        <v>1.014906777870578</v>
       </c>
       <c r="F11">
-        <v>1.012066306578334</v>
+        <v>1.037886538991688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043226304442959</v>
+        <v>1.057675664915755</v>
       </c>
       <c r="J11">
-        <v>1.012795952426037</v>
+        <v>1.041786327864596</v>
       </c>
       <c r="K11">
-        <v>1.024982755614877</v>
+        <v>1.049829654621837</v>
       </c>
       <c r="L11">
-        <v>1.00396304144433</v>
+        <v>1.029552945077402</v>
       </c>
       <c r="M11">
-        <v>1.026764201933214</v>
+        <v>1.052127672347864</v>
       </c>
       <c r="N11">
-        <v>1.014234238847801</v>
+        <v>1.043265783944726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9800699510304562</v>
+        <v>1.010822314551147</v>
       </c>
       <c r="D12">
-        <v>1.008159675741213</v>
+        <v>1.033808892883345</v>
       </c>
       <c r="E12">
-        <v>0.9865577645668875</v>
+        <v>1.013058417572447</v>
       </c>
       <c r="F12">
-        <v>1.009811286178129</v>
+        <v>1.035997651360461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042145581901161</v>
+        <v>1.056665652624952</v>
       </c>
       <c r="J12">
-        <v>1.010742410160562</v>
+        <v>1.040175613241377</v>
       </c>
       <c r="K12">
-        <v>1.023132201280908</v>
+        <v>1.048315819277241</v>
       </c>
       <c r="L12">
-        <v>1.001947108788599</v>
+        <v>1.027939643408629</v>
       </c>
       <c r="M12">
-        <v>1.024752900847413</v>
+        <v>1.050466228935812</v>
       </c>
       <c r="N12">
-        <v>1.012177780316765</v>
+        <v>1.04165278192199</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806336786100845</v>
+        <v>1.011278913509985</v>
       </c>
       <c r="D13">
-        <v>1.008610610564093</v>
+        <v>1.034183497694758</v>
       </c>
       <c r="E13">
-        <v>0.987047034988261</v>
+        <v>1.013456513707037</v>
       </c>
       <c r="F13">
-        <v>1.01029734465202</v>
+        <v>1.036404407067801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042378681260796</v>
+        <v>1.056883282069641</v>
       </c>
       <c r="J13">
-        <v>1.011185175576293</v>
+        <v>1.04052257789009</v>
       </c>
       <c r="K13">
-        <v>1.023531197167543</v>
+        <v>1.048641908430436</v>
       </c>
       <c r="L13">
-        <v>1.002381789068999</v>
+        <v>1.028287186567494</v>
       </c>
       <c r="M13">
-        <v>1.025186506940553</v>
+        <v>1.050824073029649</v>
       </c>
       <c r="N13">
-        <v>1.012621174510172</v>
+        <v>1.042000239300302</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9824698095136533</v>
+        <v>1.012767827974388</v>
       </c>
       <c r="D14">
-        <v>1.010079680981395</v>
+        <v>1.035405249085021</v>
       </c>
       <c r="E14">
-        <v>0.9886407965154418</v>
+        <v>1.014754715937779</v>
       </c>
       <c r="F14">
-        <v>1.011880956304095</v>
+        <v>1.037731111928503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0431375445594</v>
+        <v>1.057592615375841</v>
       </c>
       <c r="J14">
-        <v>1.012627222769355</v>
+        <v>1.041653840110355</v>
       </c>
       <c r="K14">
-        <v>1.024830703153014</v>
+        <v>1.04970513260469</v>
       </c>
       <c r="L14">
-        <v>1.003797412724561</v>
+        <v>1.029420254077219</v>
       </c>
       <c r="M14">
-        <v>1.02659891995826</v>
+        <v>1.051990990403352</v>
       </c>
       <c r="N14">
-        <v>1.014065269575653</v>
+        <v>1.043133108042678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9835928503661001</v>
+        <v>1.01367978159534</v>
       </c>
       <c r="D15">
-        <v>1.010978453749519</v>
+        <v>1.036153724195926</v>
       </c>
       <c r="E15">
-        <v>0.9896157042340257</v>
+        <v>1.0155499016657</v>
       </c>
       <c r="F15">
-        <v>1.012849892379285</v>
+        <v>1.038543957059526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043601405928893</v>
+        <v>1.058026825168481</v>
       </c>
       <c r="J15">
-        <v>1.013509153070944</v>
+        <v>1.042346618693993</v>
       </c>
       <c r="K15">
-        <v>1.025625466060291</v>
+        <v>1.050356264171581</v>
       </c>
       <c r="L15">
-        <v>1.004663113239898</v>
+        <v>1.030114076259851</v>
       </c>
       <c r="M15">
-        <v>1.027462875370791</v>
+        <v>1.052705743402475</v>
       </c>
       <c r="N15">
-        <v>1.014948452319429</v>
+        <v>1.043826870451367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9900085150304029</v>
+        <v>1.018907801276498</v>
       </c>
       <c r="D16">
-        <v>1.016116314350473</v>
+        <v>1.040446830970183</v>
       </c>
       <c r="E16">
-        <v>0.9951866005769733</v>
+        <v>1.020109074935088</v>
       </c>
       <c r="F16">
-        <v>1.018390162041114</v>
+        <v>1.043207385525431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046246930802797</v>
+        <v>1.060512161462374</v>
       </c>
       <c r="J16">
-        <v>1.018546161546559</v>
+        <v>1.046316365803608</v>
       </c>
       <c r="K16">
-        <v>1.030164713849224</v>
+        <v>1.054087637903526</v>
       </c>
       <c r="L16">
-        <v>1.00960637461947</v>
+        <v>1.034088863618163</v>
       </c>
       <c r="M16">
-        <v>1.03239940293793</v>
+        <v>1.056803488252999</v>
       </c>
       <c r="N16">
-        <v>1.019992613924833</v>
+        <v>1.047802255057213</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9939317028567964</v>
+        <v>1.022119630564633</v>
       </c>
       <c r="D17">
-        <v>1.019260870984027</v>
+        <v>1.043086173393479</v>
       </c>
       <c r="E17">
-        <v>0.9985943539513081</v>
+        <v>1.022910399101521</v>
       </c>
       <c r="F17">
-        <v>1.021782163993879</v>
+        <v>1.046075373620835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047860713554895</v>
+        <v>1.062035561556788</v>
       </c>
       <c r="J17">
-        <v>1.021625090794428</v>
+        <v>1.048753541950845</v>
       </c>
       <c r="K17">
-        <v>1.032939410110272</v>
+        <v>1.05637868821686</v>
       </c>
       <c r="L17">
-        <v>1.012627074204244</v>
+        <v>1.036528306573374</v>
       </c>
       <c r="M17">
-        <v>1.035418755920446</v>
+        <v>1.059321044079982</v>
       </c>
       <c r="N17">
-        <v>1.023075915605392</v>
+        <v>1.050242892274128</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9961855374556616</v>
+        <v>1.023969755259188</v>
       </c>
       <c r="D18">
-        <v>1.021068297257197</v>
+        <v>1.044607157771811</v>
       </c>
       <c r="E18">
-        <v>1.00055243028857</v>
+        <v>1.024524169517798</v>
       </c>
       <c r="F18">
-        <v>1.023732233677326</v>
+        <v>1.047728474559209</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048786353171186</v>
+        <v>1.062911824380354</v>
       </c>
       <c r="J18">
-        <v>1.023393429178132</v>
+        <v>1.0501568273692</v>
       </c>
       <c r="K18">
-        <v>1.034533010909689</v>
+        <v>1.057697909546028</v>
       </c>
       <c r="L18">
-        <v>1.014361634874648</v>
+        <v>1.037932597793219</v>
       </c>
       <c r="M18">
-        <v>1.037153517006822</v>
+        <v>1.060771247908112</v>
       </c>
       <c r="N18">
-        <v>1.024846765232432</v>
+        <v>1.051648170518736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9969483615737542</v>
+        <v>1.024596747600915</v>
       </c>
       <c r="D19">
-        <v>1.02168017857881</v>
+        <v>1.045122710403451</v>
       </c>
       <c r="E19">
-        <v>1.001215208182887</v>
+        <v>1.025071079114533</v>
       </c>
       <c r="F19">
-        <v>1.024392475953512</v>
+        <v>1.048288869683238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04909938975425</v>
+        <v>1.063208565626889</v>
       </c>
       <c r="J19">
-        <v>1.023991849264245</v>
+        <v>1.050632283413754</v>
       </c>
       <c r="K19">
-        <v>1.035072295935817</v>
+        <v>1.058144895040194</v>
       </c>
       <c r="L19">
-        <v>1.014948567470032</v>
+        <v>1.038408343684187</v>
       </c>
       <c r="M19">
-        <v>1.037740680621895</v>
+        <v>1.06126270791436</v>
       </c>
       <c r="N19">
-        <v>1.025446035143707</v>
+        <v>1.052124301765409</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9935143922729557</v>
+        <v>1.021777462971301</v>
       </c>
       <c r="D20">
-        <v>1.018926287406662</v>
+        <v>1.042804928242721</v>
       </c>
       <c r="E20">
-        <v>0.998231832210871</v>
+        <v>1.022611951832663</v>
       </c>
       <c r="F20">
-        <v>1.021421208672352</v>
+        <v>1.045769727531513</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047689206422445</v>
+        <v>1.061873399657953</v>
       </c>
       <c r="J20">
-        <v>1.02129763298294</v>
+        <v>1.048493964014438</v>
       </c>
       <c r="K20">
-        <v>1.03264430907652</v>
+        <v>1.056134666096275</v>
       </c>
       <c r="L20">
-        <v>1.012305844135176</v>
+        <v>1.036268518289583</v>
       </c>
       <c r="M20">
-        <v>1.035097567259926</v>
+        <v>1.059052838658748</v>
       </c>
       <c r="N20">
-        <v>1.022747992766251</v>
+        <v>1.049982945707278</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9819308484130906</v>
+        <v>1.01233051477238</v>
       </c>
       <c r="D21">
-        <v>1.009648413014532</v>
+        <v>1.03504637186418</v>
       </c>
       <c r="E21">
-        <v>0.988172955279057</v>
+        <v>1.01437340825874</v>
       </c>
       <c r="F21">
-        <v>1.011416044762474</v>
+        <v>1.037341390456014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042914854202639</v>
+        <v>1.057384328006375</v>
       </c>
       <c r="J21">
-        <v>1.012203952881321</v>
+        <v>1.041321597732655</v>
       </c>
       <c r="K21">
-        <v>1.024449270146522</v>
+        <v>1.049392868407209</v>
       </c>
       <c r="L21">
-        <v>1.003381913223441</v>
+        <v>1.029087494435066</v>
       </c>
       <c r="M21">
-        <v>1.026184317017443</v>
+        <v>1.051648247210568</v>
       </c>
       <c r="N21">
-        <v>1.013641398595829</v>
+        <v>1.042800393842692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9742922463921428</v>
+        <v>1.006157128290174</v>
       </c>
       <c r="D22">
-        <v>1.00354071093589</v>
+        <v>1.029983219567074</v>
       </c>
       <c r="E22">
-        <v>0.9815444622794032</v>
+        <v>1.008991493185421</v>
       </c>
       <c r="F22">
-        <v>1.004833467067327</v>
+        <v>1.031844397055529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039753597795527</v>
+        <v>1.054439456566403</v>
       </c>
       <c r="J22">
-        <v>1.006203766798926</v>
+        <v>1.036629437457801</v>
       </c>
       <c r="K22">
-        <v>1.019042350467813</v>
+        <v>1.044983218878896</v>
       </c>
       <c r="L22">
-        <v>0.9974906122019797</v>
+        <v>1.024386906755191</v>
       </c>
       <c r="M22">
-        <v>1.020309776318545</v>
+        <v>1.046810348638829</v>
       </c>
       <c r="N22">
-        <v>1.007632691560966</v>
+        <v>1.03810157016205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9783777159218704</v>
+        <v>1.009453165789973</v>
       </c>
       <c r="D23">
-        <v>1.006806309337382</v>
+        <v>1.032685792765272</v>
       </c>
       <c r="E23">
-        <v>0.9850891703985115</v>
+        <v>1.011864746887</v>
       </c>
       <c r="F23">
-        <v>1.00835260246288</v>
+        <v>1.034778240785485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041445536030346</v>
+        <v>1.056012793676246</v>
       </c>
       <c r="J23">
-        <v>1.009413210201603</v>
+        <v>1.039135087823598</v>
       </c>
       <c r="K23">
-        <v>1.0219344110859</v>
+        <v>1.047337920493948</v>
       </c>
       <c r="L23">
-        <v>1.000642103241322</v>
+        <v>1.026897314269443</v>
       </c>
       <c r="M23">
-        <v>1.023451367738297</v>
+        <v>1.049393233693747</v>
       </c>
       <c r="N23">
-        <v>1.010846692741403</v>
+        <v>1.040610778838768</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9937030630954411</v>
+        <v>1.021932145471253</v>
       </c>
       <c r="D24">
-        <v>1.019077553611437</v>
+        <v>1.04293206779566</v>
       </c>
       <c r="E24">
-        <v>0.9983957312916893</v>
+        <v>1.022746869502876</v>
       </c>
       <c r="F24">
-        <v>1.021584396322366</v>
+        <v>1.045907896661308</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047766751292494</v>
+        <v>1.061946711562309</v>
       </c>
       <c r="J24">
-        <v>1.02144568184895</v>
+        <v>1.048611312406728</v>
       </c>
       <c r="K24">
-        <v>1.032777728952363</v>
+        <v>1.056244981886895</v>
       </c>
       <c r="L24">
-        <v>1.012451078380413</v>
+        <v>1.036385962705064</v>
       </c>
       <c r="M24">
-        <v>1.035242779760027</v>
+        <v>1.059174085333731</v>
       </c>
       <c r="N24">
-        <v>1.022896251878633</v>
+        <v>1.050100460747744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01014867225642</v>
+        <v>1.035508753459975</v>
       </c>
       <c r="D25">
-        <v>1.032279632745925</v>
+        <v>1.054103330215479</v>
       </c>
       <c r="E25">
-        <v>1.012687984837594</v>
+        <v>1.034590117417408</v>
       </c>
       <c r="F25">
-        <v>1.035835739202776</v>
+        <v>1.05805583246887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054494185699147</v>
+        <v>1.06835397549289</v>
       </c>
       <c r="J25">
-        <v>1.034339254475948</v>
+        <v>1.058897476487122</v>
       </c>
       <c r="K25">
-        <v>1.044396694064693</v>
+        <v>1.065916050154707</v>
       </c>
       <c r="L25">
-        <v>1.025092478129239</v>
+        <v>1.046674189277151</v>
       </c>
       <c r="M25">
-        <v>1.047902103101032</v>
+        <v>1.069815121250964</v>
       </c>
       <c r="N25">
-        <v>1.035808134857674</v>
+        <v>1.060401232360972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04571345696573</v>
+        <v>1.024124727175707</v>
       </c>
       <c r="D2">
-        <v>1.062514824412384</v>
+        <v>1.042533295877397</v>
       </c>
       <c r="E2">
-        <v>1.043491947131174</v>
+        <v>1.027139519682512</v>
       </c>
       <c r="F2">
-        <v>1.067213760931284</v>
+        <v>1.047234940429194</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073129100678315</v>
+        <v>1.059875896199933</v>
       </c>
       <c r="J2">
-        <v>1.066607855430857</v>
+        <v>1.045607059753072</v>
       </c>
       <c r="K2">
-        <v>1.073166876431736</v>
+        <v>1.053430247871278</v>
       </c>
       <c r="L2">
-        <v>1.05437688261603</v>
+        <v>1.038233275312837</v>
       </c>
       <c r="M2">
-        <v>1.077809871837403</v>
+        <v>1.058073220574139</v>
       </c>
       <c r="N2">
-        <v>1.0681225609272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018628329868386</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04885001561706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052805184800464</v>
+        <v>1.028388031875366</v>
       </c>
       <c r="D3">
-        <v>1.068367105260409</v>
+        <v>1.04558696012237</v>
       </c>
       <c r="E3">
-        <v>1.049676911370751</v>
+        <v>1.030560602353352</v>
       </c>
       <c r="F3">
-        <v>1.073591864218882</v>
+        <v>1.050870871533308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07642306686368</v>
+        <v>1.061335997111154</v>
       </c>
       <c r="J3">
-        <v>1.071952984833818</v>
+        <v>1.04813362899777</v>
       </c>
       <c r="K3">
-        <v>1.078194022316551</v>
+        <v>1.055667971534607</v>
       </c>
       <c r="L3">
-        <v>1.059711301384144</v>
+        <v>1.040816834795671</v>
       </c>
       <c r="M3">
-        <v>1.083362366798338</v>
+        <v>1.060891735931442</v>
       </c>
       <c r="N3">
-        <v>1.073475281027008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019505623730471</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050429611877512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057259613227122</v>
+        <v>1.031095789876408</v>
       </c>
       <c r="D4">
-        <v>1.072045616266125</v>
+        <v>1.047530437914061</v>
       </c>
       <c r="E4">
-        <v>1.053560784869231</v>
+        <v>1.032738998677395</v>
       </c>
       <c r="F4">
-        <v>1.077603927488015</v>
+        <v>1.053185742339833</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078480452945428</v>
+        <v>1.062254727060033</v>
       </c>
       <c r="J4">
-        <v>1.075303959487929</v>
+        <v>1.049736175819123</v>
       </c>
       <c r="K4">
-        <v>1.081345839408954</v>
+        <v>1.057087157603996</v>
       </c>
       <c r="L4">
-        <v>1.063053056056596</v>
+        <v>1.042457719386298</v>
       </c>
       <c r="M4">
-        <v>1.086847970468171</v>
+        <v>1.0626819953997</v>
       </c>
       <c r="N4">
-        <v>1.076831014449489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020062003935595</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.05143395316356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059101790717826</v>
+        <v>1.032227255957483</v>
       </c>
       <c r="D5">
-        <v>1.073567457559142</v>
+        <v>1.048345541434744</v>
       </c>
       <c r="E5">
-        <v>1.055166709979899</v>
+        <v>1.033651277921059</v>
       </c>
       <c r="F5">
-        <v>1.079264498890144</v>
+        <v>1.054155446712962</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079328481469354</v>
+        <v>1.062638293582601</v>
       </c>
       <c r="J5">
-        <v>1.076688217447696</v>
+        <v>1.05040716089371</v>
       </c>
       <c r="K5">
-        <v>1.082647862021088</v>
+        <v>1.057682628102854</v>
       </c>
       <c r="L5">
-        <v>1.064432901524294</v>
+        <v>1.043144985275529</v>
       </c>
       <c r="M5">
-        <v>1.088288939943008</v>
+        <v>1.063432078034075</v>
       </c>
       <c r="N5">
-        <v>1.078217238214337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020295856935324</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051862046947838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059409361181608</v>
+        <v>1.032422522590128</v>
       </c>
       <c r="D6">
-        <v>1.073821575148579</v>
+        <v>1.048488782830055</v>
       </c>
       <c r="E6">
-        <v>1.055434816972384</v>
+        <v>1.033809657128697</v>
       </c>
       <c r="F6">
-        <v>1.079541825131706</v>
+        <v>1.054324212806568</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079469901184901</v>
+        <v>1.062706518098506</v>
       </c>
       <c r="J6">
-        <v>1.076919239788156</v>
+        <v>1.050525220446507</v>
       </c>
       <c r="K6">
-        <v>1.082865161624964</v>
+        <v>1.05778896930509</v>
       </c>
       <c r="L6">
-        <v>1.064663151859791</v>
+        <v>1.043265580358528</v>
       </c>
       <c r="M6">
-        <v>1.088529491220802</v>
+        <v>1.063563958523611</v>
       </c>
       <c r="N6">
-        <v>1.078448588633018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020338117054872</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051945843444414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057284346036113</v>
+        <v>1.031127056205252</v>
       </c>
       <c r="D7">
-        <v>1.072066046189427</v>
+        <v>1.047559702151931</v>
       </c>
       <c r="E7">
-        <v>1.053582347015212</v>
+        <v>1.032766551604281</v>
       </c>
       <c r="F7">
-        <v>1.07762621687071</v>
+        <v>1.0532161150521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07849184969122</v>
+        <v>1.062271115591131</v>
       </c>
       <c r="J7">
-        <v>1.075322550619043</v>
+        <v>1.049760893492048</v>
       </c>
       <c r="K7">
-        <v>1.08136332596344</v>
+        <v>1.057113286484444</v>
       </c>
       <c r="L7">
-        <v>1.063071590320514</v>
+        <v>1.042482090958545</v>
       </c>
       <c r="M7">
-        <v>1.086867318927688</v>
+        <v>1.062709245163965</v>
       </c>
       <c r="N7">
-        <v>1.076849631982142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020073659392133</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051472228230267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048139040702826</v>
+        <v>1.025596663354298</v>
       </c>
       <c r="D8">
-        <v>1.064515886612982</v>
+        <v>1.043595117897567</v>
       </c>
       <c r="E8">
-        <v>1.045607568319916</v>
+        <v>1.028322599805483</v>
       </c>
       <c r="F8">
-        <v>1.069393979220076</v>
+        <v>1.04849353997633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074258159337519</v>
+        <v>1.060388907633728</v>
       </c>
       <c r="J8">
-        <v>1.068437371422425</v>
+        <v>1.046487547721504</v>
       </c>
       <c r="K8">
-        <v>1.074887505873667</v>
+        <v>1.054215252253495</v>
       </c>
       <c r="L8">
-        <v>1.056203260213471</v>
+        <v>1.039132117816441</v>
       </c>
       <c r="M8">
-        <v>1.079709378394692</v>
+        <v>1.059054383207079</v>
       </c>
       <c r="N8">
-        <v>1.069954675041325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018938077172645</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049427648219565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03090975643729</v>
+        <v>1.015416297871531</v>
       </c>
       <c r="D9">
-        <v>1.0503165114023</v>
+        <v>1.036319986608001</v>
       </c>
       <c r="E9">
-        <v>1.030578088152892</v>
+        <v>1.02018406095697</v>
       </c>
       <c r="F9">
-        <v>1.053936198181838</v>
+        <v>1.039840621748911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066189932023008</v>
+        <v>1.056847972384926</v>
       </c>
       <c r="J9">
-        <v>1.055416318101953</v>
+        <v>1.04043617045364</v>
       </c>
       <c r="K9">
-        <v>1.062642775643869</v>
+        <v>1.048850053304673</v>
       </c>
       <c r="L9">
-        <v>1.043193800200798</v>
+        <v>1.032957938976572</v>
       </c>
       <c r="M9">
-        <v>1.066210870672054</v>
+        <v>1.052318769066059</v>
       </c>
       <c r="N9">
-        <v>1.056915130331602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016833222332776</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045631048975123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018541607914695</v>
+        <v>1.008331701575956</v>
       </c>
       <c r="D10">
-        <v>1.040145998712189</v>
+        <v>1.031285280567119</v>
       </c>
       <c r="E10">
-        <v>1.019789702437025</v>
+        <v>1.014555292701746</v>
       </c>
       <c r="F10">
-        <v>1.042880540504694</v>
+        <v>1.033854296435982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060338300521873</v>
+        <v>1.054342736848825</v>
       </c>
       <c r="J10">
-        <v>1.046038411617334</v>
+        <v>1.036218610376296</v>
       </c>
       <c r="K10">
-        <v>1.053826359460408</v>
+        <v>1.045111746436592</v>
       </c>
       <c r="L10">
-        <v>1.033810610017128</v>
+        <v>1.028666627469131</v>
       </c>
       <c r="M10">
-        <v>1.056516454896352</v>
+        <v>1.047638069739631</v>
       </c>
       <c r="N10">
-        <v>1.047523906144113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015367837070613</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043004507796421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01294222201973</v>
+        <v>1.005207095555455</v>
       </c>
       <c r="D11">
-        <v>1.035548371698207</v>
+        <v>1.029079834705368</v>
       </c>
       <c r="E11">
-        <v>1.014906777870578</v>
+        <v>1.012085198447207</v>
       </c>
       <c r="F11">
-        <v>1.037886538991688</v>
+        <v>1.031227207038403</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057675664915755</v>
+        <v>1.053235025606782</v>
       </c>
       <c r="J11">
-        <v>1.041786327864596</v>
+        <v>1.034364846287789</v>
       </c>
       <c r="K11">
-        <v>1.049829654621837</v>
+        <v>1.043473422733535</v>
       </c>
       <c r="L11">
-        <v>1.029552945077402</v>
+        <v>1.026782748511385</v>
       </c>
       <c r="M11">
-        <v>1.052127672347864</v>
+        <v>1.045583310676506</v>
       </c>
       <c r="N11">
-        <v>1.043265783944726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014728687176793</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041878686336369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010822314551147</v>
+        <v>1.004022185200549</v>
       </c>
       <c r="D12">
-        <v>1.033808892883345</v>
+        <v>1.028239917985716</v>
       </c>
       <c r="E12">
-        <v>1.013058417572447</v>
+        <v>1.011147800294788</v>
       </c>
       <c r="F12">
-        <v>1.035997651360461</v>
+        <v>1.030229844841468</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056665652624952</v>
+        <v>1.052809734058199</v>
       </c>
       <c r="J12">
-        <v>1.040175613241377</v>
+        <v>1.033657289053406</v>
       </c>
       <c r="K12">
-        <v>1.048315819277241</v>
+        <v>1.04284537292034</v>
       </c>
       <c r="L12">
-        <v>1.027939643408629</v>
+        <v>1.026064497743622</v>
       </c>
       <c r="M12">
-        <v>1.050466228935812</v>
+        <v>1.044799934514216</v>
       </c>
       <c r="N12">
-        <v>1.04165278192199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014482187958817</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041434642226776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011278913509985</v>
+        <v>1.004274561696282</v>
       </c>
       <c r="D13">
-        <v>1.034183497694758</v>
+        <v>1.028417859640142</v>
       </c>
       <c r="E13">
-        <v>1.013456513707037</v>
+        <v>1.011346986327023</v>
       </c>
       <c r="F13">
-        <v>1.036404407067801</v>
+        <v>1.030441727319773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056883282069641</v>
+        <v>1.052899642111728</v>
       </c>
       <c r="J13">
-        <v>1.04052257789009</v>
+        <v>1.03380714605851</v>
       </c>
       <c r="K13">
-        <v>1.048641908430436</v>
+        <v>1.042977868077936</v>
       </c>
       <c r="L13">
-        <v>1.028287186567494</v>
+        <v>1.026216662500801</v>
       </c>
       <c r="M13">
-        <v>1.050824073029649</v>
+        <v>1.044965904763268</v>
       </c>
       <c r="N13">
-        <v>1.042000239300302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014533883458121</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041525847982036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012767827974388</v>
+        <v>1.005108400973163</v>
       </c>
       <c r="D14">
-        <v>1.035405249085021</v>
+        <v>1.02900946676839</v>
       </c>
       <c r="E14">
-        <v>1.014754715937779</v>
+        <v>1.012006917420653</v>
       </c>
       <c r="F14">
-        <v>1.037731111928503</v>
+        <v>1.031143898185044</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057592615375841</v>
+        <v>1.053199314821736</v>
       </c>
       <c r="J14">
-        <v>1.041653840110355</v>
+        <v>1.034305550626905</v>
       </c>
       <c r="K14">
-        <v>1.04970513260469</v>
+        <v>1.043420566374495</v>
       </c>
       <c r="L14">
-        <v>1.029420254077219</v>
+        <v>1.026722575063081</v>
       </c>
       <c r="M14">
-        <v>1.051990990403352</v>
+        <v>1.045517683606657</v>
       </c>
       <c r="N14">
-        <v>1.043133108042678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014707812158182</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041840257385001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01367978159534</v>
+        <v>1.005625157795471</v>
       </c>
       <c r="D15">
-        <v>1.036153724195926</v>
+        <v>1.029378046211638</v>
       </c>
       <c r="E15">
-        <v>1.0155499016657</v>
+        <v>1.012416886665812</v>
       </c>
       <c r="F15">
-        <v>1.038543957059526</v>
+        <v>1.0315802040516</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058026825168481</v>
+        <v>1.053386311975627</v>
       </c>
       <c r="J15">
-        <v>1.042346618693993</v>
+        <v>1.034616096943858</v>
       </c>
       <c r="K15">
-        <v>1.050356264171581</v>
+        <v>1.04369744357288</v>
       </c>
       <c r="L15">
-        <v>1.030114076259851</v>
+        <v>1.027037728666855</v>
       </c>
       <c r="M15">
-        <v>1.052705743402475</v>
+        <v>1.045861403848509</v>
       </c>
       <c r="N15">
-        <v>1.043826870451367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014817190393156</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042041834398036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018907801276498</v>
+        <v>1.00857741185706</v>
       </c>
       <c r="D16">
-        <v>1.040446830970183</v>
+        <v>1.031474538199033</v>
       </c>
       <c r="E16">
-        <v>1.020109074935088</v>
+        <v>1.014756629737704</v>
       </c>
       <c r="F16">
-        <v>1.043207385525431</v>
+        <v>1.034069487872641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060512161462374</v>
+        <v>1.054442473744439</v>
       </c>
       <c r="J16">
-        <v>1.046316365803608</v>
+        <v>1.036379091427157</v>
       </c>
       <c r="K16">
-        <v>1.054087637903526</v>
+        <v>1.045262769865707</v>
       </c>
       <c r="L16">
-        <v>1.034088863618163</v>
+        <v>1.028828553258084</v>
       </c>
       <c r="M16">
-        <v>1.056803488252999</v>
+        <v>1.047814743272867</v>
       </c>
       <c r="N16">
-        <v>1.047802255057213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015431825311626</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043151688771923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022119630564633</v>
+        <v>1.010407475798451</v>
       </c>
       <c r="D17">
-        <v>1.043086173393479</v>
+        <v>1.032775919471411</v>
       </c>
       <c r="E17">
-        <v>1.022910399101521</v>
+        <v>1.016209304424714</v>
       </c>
       <c r="F17">
-        <v>1.046075373620835</v>
+        <v>1.035614896050549</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062035561556788</v>
+        <v>1.055094594195225</v>
       </c>
       <c r="J17">
-        <v>1.048753541950845</v>
+        <v>1.03747150251878</v>
       </c>
       <c r="K17">
-        <v>1.05637868821686</v>
+        <v>1.046232678397798</v>
       </c>
       <c r="L17">
-        <v>1.036528306573374</v>
+        <v>1.029938972029011</v>
       </c>
       <c r="M17">
-        <v>1.059321044079982</v>
+        <v>1.049026011210877</v>
       </c>
       <c r="N17">
-        <v>1.050242892274128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015812671487754</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043839994083779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023969755259188</v>
+        <v>1.011455041958288</v>
       </c>
       <c r="D18">
-        <v>1.044607157771811</v>
+        <v>1.033516699541949</v>
       </c>
       <c r="E18">
-        <v>1.024524169517798</v>
+        <v>1.017039593705135</v>
       </c>
       <c r="F18">
-        <v>1.047728474559209</v>
+        <v>1.036497775032019</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062911824380354</v>
+        <v>1.055463010759945</v>
       </c>
       <c r="J18">
-        <v>1.0501568273692</v>
+        <v>1.03809216888107</v>
       </c>
       <c r="K18">
-        <v>1.057697909546028</v>
+        <v>1.046780927229666</v>
       </c>
       <c r="L18">
-        <v>1.037932597793219</v>
+        <v>1.030570543765299</v>
       </c>
       <c r="M18">
-        <v>1.060771247908112</v>
+        <v>1.049714906145863</v>
       </c>
       <c r="N18">
-        <v>1.051648170518736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016026474148514</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044216096869564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024596747600915</v>
+        <v>1.011820406418982</v>
       </c>
       <c r="D19">
-        <v>1.045122710403451</v>
+        <v>1.033778896974098</v>
       </c>
       <c r="E19">
-        <v>1.025071079114533</v>
+        <v>1.017330915924322</v>
       </c>
       <c r="F19">
-        <v>1.048288869683238</v>
+        <v>1.036807832678756</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063208565626889</v>
+        <v>1.05559441882919</v>
       </c>
       <c r="J19">
-        <v>1.050632283413754</v>
+        <v>1.038312109747311</v>
       </c>
       <c r="K19">
-        <v>1.058144895040194</v>
+        <v>1.046977410085434</v>
       </c>
       <c r="L19">
-        <v>1.038408343684187</v>
+        <v>1.030794077343334</v>
       </c>
       <c r="M19">
-        <v>1.06126270791436</v>
+        <v>1.049958781092114</v>
       </c>
       <c r="N19">
-        <v>1.052124301765409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016104264863438</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044361339927474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021777462971301</v>
+        <v>1.010210970800145</v>
       </c>
       <c r="D20">
-        <v>1.042804928242721</v>
+        <v>1.032635745862764</v>
       </c>
       <c r="E20">
-        <v>1.022611951832663</v>
+        <v>1.01605307658891</v>
       </c>
       <c r="F20">
-        <v>1.045769727531513</v>
+        <v>1.035448671949595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061873399657953</v>
+        <v>1.055024364378189</v>
       </c>
       <c r="J20">
-        <v>1.048493964014438</v>
+        <v>1.037353873013534</v>
       </c>
       <c r="K20">
-        <v>1.056134666096275</v>
+        <v>1.046128023402811</v>
       </c>
       <c r="L20">
-        <v>1.036268518289583</v>
+        <v>1.029819405464253</v>
       </c>
       <c r="M20">
-        <v>1.059052838658748</v>
+        <v>1.04889557918018</v>
       </c>
       <c r="N20">
-        <v>1.049982945707278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015771460885317</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043764679208725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01233051477238</v>
+        <v>1.004876494995893</v>
       </c>
       <c r="D21">
-        <v>1.03504637186418</v>
+        <v>1.028849974632138</v>
       </c>
       <c r="E21">
-        <v>1.01437340825874</v>
+        <v>1.011825635317314</v>
       </c>
       <c r="F21">
-        <v>1.037341390456014</v>
+        <v>1.030951294342481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057384328006375</v>
+        <v>1.053120156038145</v>
       </c>
       <c r="J21">
-        <v>1.041321597732655</v>
+        <v>1.034171737427106</v>
       </c>
       <c r="K21">
-        <v>1.049392868407209</v>
+        <v>1.043304640906242</v>
       </c>
       <c r="L21">
-        <v>1.029087494435066</v>
+        <v>1.026586378262531</v>
       </c>
       <c r="M21">
-        <v>1.051648247210568</v>
+        <v>1.045369089387956</v>
       </c>
       <c r="N21">
-        <v>1.042800393842692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014663969358795</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041771688285706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006157128290174</v>
+        <v>1.001432475602264</v>
       </c>
       <c r="D22">
-        <v>1.029983219567074</v>
+        <v>1.026405623718706</v>
       </c>
       <c r="E22">
-        <v>1.008991493185421</v>
+        <v>1.009101312213961</v>
       </c>
       <c r="F22">
-        <v>1.031844397055529</v>
+        <v>1.028052286850861</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054439456566403</v>
+        <v>1.051877132340919</v>
       </c>
       <c r="J22">
-        <v>1.036629437457801</v>
+        <v>1.032109924232163</v>
       </c>
       <c r="K22">
-        <v>1.044983218878896</v>
+        <v>1.041471522450676</v>
       </c>
       <c r="L22">
-        <v>1.024386906755191</v>
+        <v>1.02449460106142</v>
       </c>
       <c r="M22">
-        <v>1.046810348638829</v>
+        <v>1.04308777976133</v>
       </c>
       <c r="N22">
-        <v>1.03810157016205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013942794494641</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040462239677476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009453165789973</v>
+        <v>1.003249449442947</v>
       </c>
       <c r="D23">
-        <v>1.032685792765272</v>
+        <v>1.0276885262459</v>
       </c>
       <c r="E23">
-        <v>1.011864746887</v>
+        <v>1.010535066405946</v>
       </c>
       <c r="F23">
-        <v>1.034778240785485</v>
+        <v>1.029577696194856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056012793676246</v>
+        <v>1.052528748776414</v>
       </c>
       <c r="J23">
-        <v>1.039135087823598</v>
+        <v>1.033192054256211</v>
       </c>
       <c r="K23">
-        <v>1.047337920493948</v>
+        <v>1.042430136049011</v>
       </c>
       <c r="L23">
-        <v>1.026897314269443</v>
+        <v>1.0255926252752</v>
       </c>
       <c r="M23">
-        <v>1.049393233693747</v>
+        <v>1.044285345474719</v>
       </c>
       <c r="N23">
-        <v>1.040610778838768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014317868786606</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041130456944156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021932145471253</v>
+        <v>1.010273985663348</v>
       </c>
       <c r="D24">
-        <v>1.04293206779566</v>
+        <v>1.032670702690447</v>
       </c>
       <c r="E24">
-        <v>1.022746869502876</v>
+        <v>1.016098848456271</v>
       </c>
       <c r="F24">
-        <v>1.045907896661308</v>
+        <v>1.03549662815828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061946711562309</v>
+        <v>1.055038651049989</v>
       </c>
       <c r="J24">
-        <v>1.048611312406728</v>
+        <v>1.037382203359044</v>
       </c>
       <c r="K24">
-        <v>1.056244981886895</v>
+        <v>1.046147388013683</v>
       </c>
       <c r="L24">
-        <v>1.036385962705064</v>
+        <v>1.029849027956385</v>
       </c>
       <c r="M24">
-        <v>1.059174085333731</v>
+        <v>1.048927796378401</v>
       </c>
       <c r="N24">
-        <v>1.050100460747744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015775975869498</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043751252652392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035508753459975</v>
+        <v>1.018125899159708</v>
       </c>
       <c r="D25">
-        <v>1.054103330215479</v>
+        <v>1.038262626324853</v>
       </c>
       <c r="E25">
-        <v>1.034590117417408</v>
+        <v>1.022348789764722</v>
       </c>
       <c r="F25">
-        <v>1.05805583246887</v>
+        <v>1.042143600250395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06835397549289</v>
+        <v>1.057806890240883</v>
       </c>
       <c r="J25">
-        <v>1.058897476487122</v>
+        <v>1.042058282170884</v>
       </c>
       <c r="K25">
-        <v>1.065916050154707</v>
+        <v>1.050294643438275</v>
       </c>
       <c r="L25">
-        <v>1.046674189277151</v>
+        <v>1.034609800169952</v>
       </c>
       <c r="M25">
-        <v>1.069815121250964</v>
+        <v>1.054121111193109</v>
       </c>
       <c r="N25">
-        <v>1.060401232360972</v>
+        <v>1.017402831215769</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046680677152139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024124727175707</v>
+        <v>1.021994366919544</v>
       </c>
       <c r="D2">
-        <v>1.042533295877397</v>
+        <v>1.039704212941484</v>
       </c>
       <c r="E2">
-        <v>1.027139519682512</v>
+        <v>1.025344971106679</v>
       </c>
       <c r="F2">
-        <v>1.047234940429194</v>
+        <v>1.044623647053364</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059875896199933</v>
+        <v>1.058230002378251</v>
       </c>
       <c r="J2">
-        <v>1.045607059753072</v>
+        <v>1.043536557615325</v>
       </c>
       <c r="K2">
-        <v>1.053430247871278</v>
+        <v>1.050636788158983</v>
       </c>
       <c r="L2">
-        <v>1.038233275312837</v>
+        <v>1.036462151132116</v>
       </c>
       <c r="M2">
-        <v>1.058073220574139</v>
+        <v>1.05549443227638</v>
       </c>
       <c r="N2">
-        <v>1.018628329868386</v>
+        <v>1.018451935355992</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04885001561706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046883508247074</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025326335649845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028388031875366</v>
+        <v>1.025989896915113</v>
       </c>
       <c r="D3">
-        <v>1.04558696012237</v>
+        <v>1.042452176774246</v>
       </c>
       <c r="E3">
-        <v>1.030560602353352</v>
+        <v>1.028525704819648</v>
       </c>
       <c r="F3">
-        <v>1.050870871533308</v>
+        <v>1.047970468408675</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061335997111154</v>
+        <v>1.059500234238894</v>
       </c>
       <c r="J3">
-        <v>1.04813362899777</v>
+        <v>1.045796281445402</v>
       </c>
       <c r="K3">
-        <v>1.055667971534607</v>
+        <v>1.052569227479665</v>
       </c>
       <c r="L3">
-        <v>1.040816834795671</v>
+        <v>1.038806153932383</v>
       </c>
       <c r="M3">
-        <v>1.060891735931442</v>
+        <v>1.058024255615271</v>
       </c>
       <c r="N3">
-        <v>1.019505623730471</v>
+        <v>1.019069143548931</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050429611877512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048246970812682</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025750750524676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031095789876408</v>
+        <v>1.028529478663487</v>
       </c>
       <c r="D4">
-        <v>1.047530437914061</v>
+        <v>1.044202773289851</v>
       </c>
       <c r="E4">
-        <v>1.032738998677395</v>
+        <v>1.030553046179764</v>
       </c>
       <c r="F4">
-        <v>1.053185742339833</v>
+        <v>1.05010324061682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.062254727060033</v>
+        <v>1.060299017541141</v>
       </c>
       <c r="J4">
-        <v>1.049736175819123</v>
+        <v>1.047230518560559</v>
       </c>
       <c r="K4">
-        <v>1.057087157603996</v>
+        <v>1.053795447838284</v>
       </c>
       <c r="L4">
-        <v>1.042457719386298</v>
+        <v>1.04029619364783</v>
       </c>
       <c r="M4">
-        <v>1.0626819953997</v>
+        <v>1.059632352945413</v>
       </c>
       <c r="N4">
-        <v>1.020062003935595</v>
+        <v>1.019460997986195</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05143395316356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049114956494281</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026017797996219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032227255957483</v>
+        <v>1.029590842898783</v>
       </c>
       <c r="D5">
-        <v>1.048345541434744</v>
+        <v>1.044937438529944</v>
       </c>
       <c r="E5">
-        <v>1.033651277921059</v>
+        <v>1.031402287514418</v>
       </c>
       <c r="F5">
-        <v>1.054155446712962</v>
+        <v>1.050997037495323</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062638293582601</v>
+        <v>1.060632494411244</v>
       </c>
       <c r="J5">
-        <v>1.05040716089371</v>
+        <v>1.047831199412852</v>
       </c>
       <c r="K5">
-        <v>1.057682628102854</v>
+        <v>1.054310370980641</v>
       </c>
       <c r="L5">
-        <v>1.043144985275529</v>
+        <v>1.040920449212591</v>
       </c>
       <c r="M5">
-        <v>1.063432078034075</v>
+        <v>1.060306432601477</v>
       </c>
       <c r="N5">
-        <v>1.020295856935324</v>
+        <v>1.01962576536743</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051862046947838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049486815171687</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026130109131864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032422522590128</v>
+        <v>1.029773723791836</v>
       </c>
       <c r="D6">
-        <v>1.048488782830055</v>
+        <v>1.045066652451447</v>
       </c>
       <c r="E6">
-        <v>1.033809657128697</v>
+        <v>1.031549461134867</v>
       </c>
       <c r="F6">
-        <v>1.054324212806568</v>
+        <v>1.05115252534867</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062706518098506</v>
+        <v>1.060691942594447</v>
       </c>
       <c r="J6">
-        <v>1.050525220446507</v>
+        <v>1.047936845037736</v>
       </c>
       <c r="K6">
-        <v>1.05778896930509</v>
+        <v>1.054402667559099</v>
       </c>
       <c r="L6">
-        <v>1.043265580358528</v>
+        <v>1.041029846619049</v>
       </c>
       <c r="M6">
-        <v>1.063563958523611</v>
+        <v>1.060425020373054</v>
       </c>
       <c r="N6">
-        <v>1.020338117054872</v>
+        <v>1.019655506609593</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051945843444414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049561556950293</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02615108164512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031127056205252</v>
+        <v>1.028567821611693</v>
       </c>
       <c r="D7">
-        <v>1.047559702151931</v>
+        <v>1.044236822779191</v>
       </c>
       <c r="E7">
-        <v>1.032766551604281</v>
+        <v>1.030587125921871</v>
       </c>
       <c r="F7">
-        <v>1.0532161150521</v>
+        <v>1.050138869165225</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.062271115591131</v>
+        <v>1.060319054903677</v>
       </c>
       <c r="J7">
-        <v>1.049760893492048</v>
+        <v>1.047262118165654</v>
       </c>
       <c r="K7">
-        <v>1.057113286484444</v>
+        <v>1.053826295680847</v>
       </c>
       <c r="L7">
-        <v>1.042482090958545</v>
+        <v>1.040327009194874</v>
       </c>
       <c r="M7">
-        <v>1.062709245163965</v>
+        <v>1.059664789123522</v>
       </c>
       <c r="N7">
-        <v>1.020073659392133</v>
+        <v>1.019498242737657</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051472228230267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049158582173694</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026027973063866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025596663354298</v>
+        <v>1.023402666513448</v>
       </c>
       <c r="D8">
-        <v>1.043595117897567</v>
+        <v>1.040682598741015</v>
       </c>
       <c r="E8">
-        <v>1.028322599805483</v>
+        <v>1.026471937481626</v>
       </c>
       <c r="F8">
-        <v>1.04849353997633</v>
+        <v>1.0458057195306</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060388907633728</v>
+        <v>1.058693455762183</v>
       </c>
       <c r="J8">
-        <v>1.046487547721504</v>
+        <v>1.0443531217423</v>
       </c>
       <c r="K8">
-        <v>1.054215252253495</v>
+        <v>1.05133831563889</v>
       </c>
       <c r="L8">
-        <v>1.039132117816441</v>
+        <v>1.037304882107952</v>
       </c>
       <c r="M8">
-        <v>1.059054383207079</v>
+        <v>1.056399011072811</v>
       </c>
       <c r="N8">
-        <v>1.018938077172645</v>
+        <v>1.018758459349444</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049427648219565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047404399296124</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025487287851335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015416297871531</v>
+        <v>1.013879483906836</v>
       </c>
       <c r="D9">
-        <v>1.036319986608001</v>
+        <v>1.034149617291946</v>
       </c>
       <c r="E9">
-        <v>1.02018406095697</v>
+        <v>1.01892290656072</v>
       </c>
       <c r="F9">
-        <v>1.039840621748911</v>
+        <v>1.03785726631427</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056847972384926</v>
+        <v>1.055612963511188</v>
       </c>
       <c r="J9">
-        <v>1.04043617045364</v>
+        <v>1.03895146532508</v>
       </c>
       <c r="K9">
-        <v>1.048850053304673</v>
+        <v>1.046711914742132</v>
       </c>
       <c r="L9">
-        <v>1.032957938976572</v>
+        <v>1.03171625591244</v>
       </c>
       <c r="M9">
-        <v>1.052318769066059</v>
+        <v>1.050364607463936</v>
       </c>
       <c r="N9">
-        <v>1.016833222332776</v>
+        <v>1.017291612638026</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045631048975123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044129889687966</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024456518328271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008331701575956</v>
+        <v>1.007309835219136</v>
       </c>
       <c r="D10">
-        <v>1.031285280567119</v>
+        <v>1.029673856732163</v>
       </c>
       <c r="E10">
-        <v>1.014555292701746</v>
+        <v>1.013756842412642</v>
       </c>
       <c r="F10">
-        <v>1.033854296435982</v>
+        <v>1.032407434885622</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054342736848825</v>
+        <v>1.053456868370044</v>
       </c>
       <c r="J10">
-        <v>1.036218610376296</v>
+        <v>1.035236403473351</v>
       </c>
       <c r="K10">
-        <v>1.045111746436592</v>
+        <v>1.043527241778524</v>
       </c>
       <c r="L10">
-        <v>1.028666627469131</v>
+        <v>1.027882077113507</v>
       </c>
       <c r="M10">
-        <v>1.047638069739631</v>
+        <v>1.046215218850001</v>
       </c>
       <c r="N10">
-        <v>1.015367837070613</v>
+        <v>1.016399143372603</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043004507796421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041896486154946</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023741587563005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005207095555455</v>
+        <v>1.004486632828765</v>
       </c>
       <c r="D11">
-        <v>1.029079834705368</v>
+        <v>1.027771496842</v>
       </c>
       <c r="E11">
-        <v>1.012085198447207</v>
+        <v>1.01156068345445</v>
       </c>
       <c r="F11">
-        <v>1.031227207038403</v>
+        <v>1.030077130267514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053235025606782</v>
+        <v>1.052543037583765</v>
       </c>
       <c r="J11">
-        <v>1.034364846287789</v>
+        <v>1.033673946485804</v>
       </c>
       <c r="K11">
-        <v>1.043473422733535</v>
+        <v>1.042188022644542</v>
       </c>
       <c r="L11">
-        <v>1.026782748511385</v>
+        <v>1.026267826430096</v>
       </c>
       <c r="M11">
-        <v>1.045583310676506</v>
+        <v>1.044453284397901</v>
       </c>
       <c r="N11">
-        <v>1.014728687176793</v>
+        <v>1.01621409310019</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041878686336369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040985372876746</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023450503115093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004022185200549</v>
+        <v>1.003424098839458</v>
       </c>
       <c r="D12">
-        <v>1.028239917985716</v>
+        <v>1.027052565665098</v>
       </c>
       <c r="E12">
-        <v>1.011147800294788</v>
+        <v>1.010735094445693</v>
       </c>
       <c r="F12">
-        <v>1.030229844841468</v>
+        <v>1.029198813494645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052809734058199</v>
+        <v>1.052195508851932</v>
       </c>
       <c r="J12">
-        <v>1.033657289053406</v>
+        <v>1.033084248296876</v>
       </c>
       <c r="K12">
-        <v>1.04284537292034</v>
+        <v>1.04167920716245</v>
       </c>
       <c r="L12">
-        <v>1.026064497743622</v>
+        <v>1.025659476975421</v>
       </c>
       <c r="M12">
-        <v>1.044799934514216</v>
+        <v>1.04378720464763</v>
       </c>
       <c r="N12">
-        <v>1.014482187958817</v>
+        <v>1.016159345948834</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041434642226776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040625636537549</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023338819220597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004274561696282</v>
+        <v>1.00365023056589</v>
       </c>
       <c r="D13">
-        <v>1.028417859640142</v>
+        <v>1.027204576272084</v>
       </c>
       <c r="E13">
-        <v>1.011346986327023</v>
+        <v>1.010910325419595</v>
       </c>
       <c r="F13">
-        <v>1.030441727319773</v>
+        <v>1.029385174756749</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052899642111728</v>
+        <v>1.052268752755879</v>
       </c>
       <c r="J13">
-        <v>1.03380714605851</v>
+        <v>1.033208846361891</v>
       </c>
       <c r="K13">
-        <v>1.042977868077936</v>
+        <v>1.041786152807725</v>
       </c>
       <c r="L13">
-        <v>1.026216662500801</v>
+        <v>1.025788101591565</v>
       </c>
       <c r="M13">
-        <v>1.044965904763268</v>
+        <v>1.043928034836004</v>
       </c>
       <c r="N13">
-        <v>1.014533883458121</v>
+        <v>1.016169519015823</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041525847982036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040698533998918</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02336191722457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005108400973163</v>
+        <v>1.004398042542972</v>
       </c>
       <c r="D14">
-        <v>1.02900946676839</v>
+        <v>1.027711127523566</v>
       </c>
       <c r="E14">
-        <v>1.012006917420653</v>
+        <v>1.011491643337636</v>
       </c>
       <c r="F14">
-        <v>1.031143898185044</v>
+        <v>1.030003656443089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053199314821736</v>
+        <v>1.05251375411734</v>
       </c>
       <c r="J14">
-        <v>1.034305550626905</v>
+        <v>1.033624389845069</v>
       </c>
       <c r="K14">
-        <v>1.043420566374495</v>
+        <v>1.042145022997014</v>
       </c>
       <c r="L14">
-        <v>1.026722575063081</v>
+        <v>1.026216739001213</v>
       </c>
       <c r="M14">
-        <v>1.045517683606657</v>
+        <v>1.044397350677596</v>
       </c>
       <c r="N14">
-        <v>1.014707812158182</v>
+        <v>1.016208869573539</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041840257385001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040953809281648</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023440902958816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005625157795471</v>
+        <v>1.004862177148181</v>
       </c>
       <c r="D15">
-        <v>1.029378046211638</v>
+        <v>1.028027575119638</v>
       </c>
       <c r="E15">
-        <v>1.012416886665812</v>
+        <v>1.011853499422336</v>
       </c>
       <c r="F15">
-        <v>1.0315802040516</v>
+        <v>1.030388700801996</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053386311975627</v>
+        <v>1.052667248933382</v>
       </c>
       <c r="J15">
-        <v>1.034616096943858</v>
+        <v>1.033884199751776</v>
       </c>
       <c r="K15">
-        <v>1.04369744357288</v>
+        <v>1.042370501930745</v>
       </c>
       <c r="L15">
-        <v>1.027037728666855</v>
+        <v>1.026484579946165</v>
       </c>
       <c r="M15">
-        <v>1.045861403848509</v>
+        <v>1.044690541603717</v>
       </c>
       <c r="N15">
-        <v>1.014817190393156</v>
+        <v>1.016237033864889</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042041834398036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041119616038269</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023491306486535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00857741185706</v>
+        <v>1.007530968804905</v>
       </c>
       <c r="D16">
-        <v>1.031474538199033</v>
+        <v>1.029839054140409</v>
       </c>
       <c r="E16">
-        <v>1.014756629737704</v>
+        <v>1.013935269901243</v>
       </c>
       <c r="F16">
-        <v>1.034069487872641</v>
+        <v>1.032598899783907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054442473744439</v>
+        <v>1.053541027904722</v>
       </c>
       <c r="J16">
-        <v>1.036379091427157</v>
+        <v>1.035373105435396</v>
       </c>
       <c r="K16">
-        <v>1.045262769865707</v>
+        <v>1.0436545152259</v>
       </c>
       <c r="L16">
-        <v>1.028828553258084</v>
+        <v>1.028021443402818</v>
       </c>
       <c r="M16">
-        <v>1.047814743272867</v>
+        <v>1.046368476194196</v>
       </c>
       <c r="N16">
-        <v>1.015431825311626</v>
+        <v>1.016428801824333</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043151688771923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042030871148299</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02377539693128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010407475798451</v>
+        <v>1.009200607156099</v>
       </c>
       <c r="D17">
-        <v>1.032775919471411</v>
+        <v>1.030975378502029</v>
       </c>
       <c r="E17">
-        <v>1.016209304424714</v>
+        <v>1.015242558172439</v>
       </c>
       <c r="F17">
-        <v>1.035614896050549</v>
+        <v>1.033983702104203</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055094594195225</v>
+        <v>1.054088223632008</v>
       </c>
       <c r="J17">
-        <v>1.03747150251878</v>
+        <v>1.036309753929885</v>
       </c>
       <c r="K17">
-        <v>1.046232678397798</v>
+        <v>1.044461252971914</v>
       </c>
       <c r="L17">
-        <v>1.029938972029011</v>
+        <v>1.028988506140341</v>
       </c>
       <c r="M17">
-        <v>1.049026011210877</v>
+        <v>1.047421003552887</v>
       </c>
       <c r="N17">
-        <v>1.015812671487754</v>
+        <v>1.016587269212752</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043839994083779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042604056008659</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023955130160597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011455041958288</v>
+        <v>1.010163007421917</v>
       </c>
       <c r="D18">
-        <v>1.033516699541949</v>
+        <v>1.031626588313277</v>
       </c>
       <c r="E18">
-        <v>1.017039593705135</v>
+        <v>1.015996067414991</v>
       </c>
       <c r="F18">
-        <v>1.036497775032019</v>
+        <v>1.034779931345914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055463010759945</v>
+        <v>1.054400091779179</v>
       </c>
       <c r="J18">
-        <v>1.03809216888107</v>
+        <v>1.036847491381744</v>
       </c>
       <c r="K18">
-        <v>1.046780927229666</v>
+        <v>1.044920857644583</v>
       </c>
       <c r="L18">
-        <v>1.030570543765299</v>
+        <v>1.029544284478329</v>
       </c>
       <c r="M18">
-        <v>1.049714906145863</v>
+        <v>1.048024159423719</v>
       </c>
       <c r="N18">
-        <v>1.016026474148514</v>
+        <v>1.01669029476114</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044216096869564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042916342784842</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02405618050084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011820406418982</v>
+        <v>1.010499127600071</v>
       </c>
       <c r="D19">
-        <v>1.033778896974098</v>
+        <v>1.031857997778933</v>
       </c>
       <c r="E19">
-        <v>1.017330915924322</v>
+        <v>1.016260920694547</v>
       </c>
       <c r="F19">
-        <v>1.036807832678756</v>
+        <v>1.035060213687625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05559441882919</v>
+        <v>1.054512056607096</v>
       </c>
       <c r="J19">
-        <v>1.038312109747311</v>
+        <v>1.037038930614099</v>
       </c>
       <c r="K19">
-        <v>1.046977410085434</v>
+        <v>1.045086860912944</v>
       </c>
       <c r="L19">
-        <v>1.030794077343334</v>
+        <v>1.029741680099579</v>
       </c>
       <c r="M19">
-        <v>1.049958781092114</v>
+        <v>1.04823856225629</v>
       </c>
       <c r="N19">
-        <v>1.016104264863438</v>
+        <v>1.01673151200616</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044361339927474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043040660093668</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024094168229748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010210970800145</v>
+        <v>1.009020770898633</v>
       </c>
       <c r="D20">
-        <v>1.032635745862764</v>
+        <v>1.030852495632549</v>
       </c>
       <c r="E20">
-        <v>1.01605307658891</v>
+        <v>1.015101427358647</v>
       </c>
       <c r="F20">
-        <v>1.035448671949595</v>
+        <v>1.03383426552282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055024364378189</v>
+        <v>1.054028959932824</v>
       </c>
       <c r="J20">
-        <v>1.037353873013534</v>
+        <v>1.036208331752984</v>
       </c>
       <c r="K20">
-        <v>1.046128023402811</v>
+        <v>1.044373700334236</v>
       </c>
       <c r="L20">
-        <v>1.029819405464253</v>
+        <v>1.028883834076149</v>
       </c>
       <c r="M20">
-        <v>1.04889557918018</v>
+        <v>1.047307173130681</v>
       </c>
       <c r="N20">
-        <v>1.015771460885317</v>
+        <v>1.016568386994814</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043764679208725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042540703311665</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023935438171677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004876494995893</v>
+        <v>1.004214056392972</v>
       </c>
       <c r="D21">
-        <v>1.028849974632138</v>
+        <v>1.027593786801111</v>
       </c>
       <c r="E21">
-        <v>1.011825635317314</v>
+        <v>1.011354945151389</v>
       </c>
       <c r="F21">
-        <v>1.030951294342481</v>
+        <v>1.029853852317393</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053120156038145</v>
+        <v>1.052462982767412</v>
       </c>
       <c r="J21">
-        <v>1.034171737427106</v>
+        <v>1.033536640148613</v>
       </c>
       <c r="K21">
-        <v>1.043304640906242</v>
+        <v>1.042070588412904</v>
       </c>
       <c r="L21">
-        <v>1.026586378262531</v>
+        <v>1.026124341252706</v>
       </c>
       <c r="M21">
-        <v>1.045369089387956</v>
+        <v>1.044290879526058</v>
       </c>
       <c r="N21">
-        <v>1.014663969358795</v>
+        <v>1.01627192377502</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041771688285706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040915890851548</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023429689797244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001432475602264</v>
+        <v>1.00111285324247</v>
       </c>
       <c r="D22">
-        <v>1.026405623718706</v>
+        <v>1.025491205302764</v>
       </c>
       <c r="E22">
-        <v>1.009101312213961</v>
+        <v>1.008943833302067</v>
       </c>
       <c r="F22">
-        <v>1.028052286850861</v>
+        <v>1.027290526060587</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051877132340919</v>
+        <v>1.051438652857625</v>
       </c>
       <c r="J22">
-        <v>1.032109924232163</v>
+        <v>1.031804279506851</v>
       </c>
       <c r="K22">
-        <v>1.041471522450676</v>
+        <v>1.040574043866081</v>
       </c>
       <c r="L22">
-        <v>1.02449460106142</v>
+        <v>1.024340169159452</v>
       </c>
       <c r="M22">
-        <v>1.04308777976133</v>
+        <v>1.042340069177963</v>
       </c>
       <c r="N22">
-        <v>1.013942794494641</v>
+        <v>1.016066205202919</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040462239677476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039843112522619</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023097151207834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003249449442947</v>
+        <v>1.00273351021973</v>
       </c>
       <c r="D23">
-        <v>1.0276885262459</v>
+        <v>1.026581777968243</v>
       </c>
       <c r="E23">
-        <v>1.010535066405946</v>
+        <v>1.010197718012141</v>
       </c>
       <c r="F23">
-        <v>1.029577696194856</v>
+        <v>1.028626149918464</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052528748776414</v>
+        <v>1.051966443350974</v>
       </c>
       <c r="J23">
-        <v>1.033192054256211</v>
+        <v>1.032698002146144</v>
       </c>
       <c r="K23">
-        <v>1.042430136049011</v>
+        <v>1.041343358641119</v>
       </c>
       <c r="L23">
-        <v>1.0255926252752</v>
+        <v>1.025261631050182</v>
       </c>
       <c r="M23">
-        <v>1.044285345474719</v>
+        <v>1.043350884338528</v>
       </c>
       <c r="N23">
-        <v>1.014317868786606</v>
+        <v>1.016124913102794</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041130456944156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040376543008334</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023263770703065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010273985663348</v>
+        <v>1.009079966565983</v>
       </c>
       <c r="D24">
-        <v>1.032670702690447</v>
+        <v>1.030882782402581</v>
       </c>
       <c r="E24">
-        <v>1.016098848456271</v>
+        <v>1.015144130519398</v>
       </c>
       <c r="F24">
-        <v>1.03549662815828</v>
+        <v>1.03387786712777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055038651049989</v>
+        <v>1.054040454177366</v>
       </c>
       <c r="J24">
-        <v>1.037382203359044</v>
+        <v>1.036232915825857</v>
       </c>
       <c r="K24">
-        <v>1.046147388013683</v>
+        <v>1.044388431237903</v>
       </c>
       <c r="L24">
-        <v>1.029849027956385</v>
+        <v>1.028910417192875</v>
       </c>
       <c r="M24">
-        <v>1.048927796378401</v>
+        <v>1.047335069621589</v>
       </c>
       <c r="N24">
-        <v>1.015775975869498</v>
+        <v>1.016567485360195</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043751252652392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042521317625342</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023935023539508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018125899159708</v>
+        <v>1.01639815359743</v>
       </c>
       <c r="D25">
-        <v>1.038262626324853</v>
+        <v>1.035883092073898</v>
       </c>
       <c r="E25">
-        <v>1.022348789764722</v>
+        <v>1.02091561613396</v>
       </c>
       <c r="F25">
-        <v>1.042143600250395</v>
+        <v>1.03996010787253</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057806890240883</v>
+        <v>1.056441133023913</v>
       </c>
       <c r="J25">
-        <v>1.042058282170884</v>
+        <v>1.040385982095759</v>
       </c>
       <c r="K25">
-        <v>1.050294643438275</v>
+        <v>1.047948783858841</v>
       </c>
       <c r="L25">
-        <v>1.034609800169952</v>
+        <v>1.033197694256999</v>
       </c>
       <c r="M25">
-        <v>1.054121111193109</v>
+        <v>1.051968221550907</v>
       </c>
       <c r="N25">
-        <v>1.017402831215769</v>
+        <v>1.017653250693679</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046680677152139</v>
+        <v>1.045035465753115</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024736591011603</v>
       </c>
     </row>
   </sheetData>
